--- a/productions/site_002/project.xlsx
+++ b/productions/site_002/project.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\サブデスクトップ\Git\production\productions\site1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\サブデスクトップ\Git\production\productions\site_002\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{847F845A-EF18-41FD-8DC1-8A0A7FF3A564}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F83B81C-B906-43DE-815A-EEB2D49760FF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2280" windowWidth="16920" windowHeight="10540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="メモ" sheetId="1" r:id="rId1"/>
+    <sheet name="ページ構成" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>・デフォルトでは作成されていないファイルで、vueの初期値を変更する場合等に使用する設定ファイルです。</t>
     <phoneticPr fontId="2"/>
@@ -98,6 +99,10 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>」</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
@@ -154,16 +159,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFAECCA"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -263,6 +276,945 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>172356</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="四角形: 角を丸くする 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F04EB81-D573-4FC4-9BCD-48C8E55E07E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="662214" y="172356"/>
+          <a:ext cx="1324429" cy="9134929"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4"/>
+        </a:solidFill>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Home</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直線矢印コネクタ 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90B5DEF9-5C38-4ED8-B0B2-BA8DB0D2265E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2183423" y="2637692"/>
+          <a:ext cx="1138115" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="直線矢印コネクタ 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB205880-3092-446F-B0FD-873D3EFDBFE4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2183423" y="7209692"/>
+          <a:ext cx="1138115" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>253999</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="四角形: 角を丸くする 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A53C94C-C7B4-414F-8278-F29DAC3019E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6232768" y="1055077"/>
+          <a:ext cx="1074617" cy="3341077"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Main</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>592502</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>162658</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>625230</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>166077</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="四角形: 角を丸くする 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D992B244-6157-4691-AF2A-AE14185B21CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9228502" y="1217735"/>
+          <a:ext cx="2025651" cy="706804"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>About</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>612039</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="四角形: 角を丸くする 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82C6DEDB-D3ED-4F12-ADBB-354D6FC947EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9248039" y="3529623"/>
+          <a:ext cx="2045191" cy="690685"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Contact</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>395654</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>156307</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>205154</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>156307</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直線矢印コネクタ 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87EAA671-6FBA-4546-8B4F-6ECACF055147}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7703039" y="1563076"/>
+          <a:ext cx="1138115" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="四角形: 角を丸くする 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7218CE2C-A4FB-4AED-8265-7E7CD4747F4A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3575538" y="703385"/>
+          <a:ext cx="1074616" cy="4044461"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Login</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>253999</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>657956</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="四角形: 角を丸くする 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8DE62A3-83D4-4255-AC6D-1AEB6FFCD757}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3575537" y="6330462"/>
+          <a:ext cx="2396881" cy="1758461"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>User registration</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="直線矢印コネクタ 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE1716E9-6BC9-4F48-BB06-0027500E64D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4840654" y="2637692"/>
+          <a:ext cx="1138115" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>395654</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>205154</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="直線矢印コネクタ 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2301636-AB03-4082-AADC-C26611F7E6D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7703039" y="3868615"/>
+          <a:ext cx="1138115" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>395654</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>78154</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>205154</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>78154</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="直線矢印コネクタ 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3702D28C-6B42-485C-A22D-C5DCE42E5AB6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7703039" y="2715846"/>
+          <a:ext cx="1138115" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>631580</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>3419</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="四角形: 角を丸くする 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD3D2F7A-3452-4719-8A12-3787EC29AD1A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9267580" y="2286000"/>
+          <a:ext cx="2025651" cy="706804"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Insert</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -531,9 +1483,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:AR14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="AR14" sqref="AR14"/>
     </sheetView>
   </sheetViews>
@@ -542,29 +1494,34 @@
     <col min="1" max="16384" width="2.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AR14" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -573,4 +1530,28 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED255E86-50EF-4C97-9094-74037EC9A879}">
+  <dimension ref="K5"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+      <selection activeCell="P39" sqref="P39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="8.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K5" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/productions/site_002/project.xlsx
+++ b/productions/site_002/project.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\サブデスクトップ\Git\production\productions\site_002\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F83B81C-B906-43DE-815A-EEB2D49760FF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A46AAEB3-4592-405E-B546-035B7BDDADAC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1140" yWindow="1140" windowWidth="16920" windowHeight="10540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="メモ" sheetId="1" r:id="rId1"/>
@@ -724,7 +724,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>Contact</a:t>
+            <a:t>Access</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
             <a:solidFill>
@@ -1205,7 +1205,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>Insert</a:t>
+            <a:t>Contact</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
             <a:solidFill>
@@ -1537,7 +1537,7 @@
   <dimension ref="K5"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="P39" sqref="P39"/>
+      <selection activeCell="W8" sqref="W8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
